--- a/data/trans_dic/P21B_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P21B_R2-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,58; 7,83</t>
+          <t>1,46; 7,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,99</t>
+          <t>0,49; 4,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,75</t>
+          <t>0,0; 4,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,92; 4,11</t>
+          <t>0,84; 3,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,25; 3,04</t>
+          <t>0,26; 2,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,41</t>
+          <t>0,0; 3,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,46; 4,26</t>
+          <t>1,54; 4,39</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,71</t>
+          <t>0,61; 2,67</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,6</t>
+          <t>0,27; 2,46</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,23; 5,46</t>
+          <t>1,23; 5,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,79; 4,12</t>
+          <t>1,02; 4,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,5; 10,31</t>
+          <t>4,67; 10,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,53; 5,11</t>
+          <t>1,5; 5,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,31; 4,67</t>
+          <t>1,64; 5,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,66; 8,89</t>
+          <t>3,72; 8,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,59; 4,19</t>
+          <t>1,64; 4,32</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,5; 3,79</t>
+          <t>1,53; 3,78</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,7; 8,55</t>
+          <t>4,64; 8,63</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,61; 20,55</t>
+          <t>4,3; 20,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,4; 13,26</t>
+          <t>1,42; 13,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,71; 24,49</t>
+          <t>7,43; 25,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,44; 12,43</t>
+          <t>2,58; 12,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,29; 19,0</t>
+          <t>6,44; 18,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,06; 29,08</t>
+          <t>13,69; 28,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,23; 12,61</t>
+          <t>4,29; 12,87</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,8; 15,0</t>
+          <t>5,58; 15,08</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>13,66; 24,86</t>
+          <t>13,34; 25,4</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,64; 6,53</t>
+          <t>2,46; 6,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,18; 3,78</t>
+          <t>1,35; 3,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,58; 9,15</t>
+          <t>4,62; 8,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,88; 4,28</t>
+          <t>1,81; 4,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,11; 4,43</t>
+          <t>2,12; 4,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,23; 9,33</t>
+          <t>5,47; 9,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,48; 4,52</t>
+          <t>2,46; 4,54</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,07; 3,83</t>
+          <t>2,1; 3,75</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,41; 8,51</t>
+          <t>5,53; 8,45</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
